--- a/Python/Registers.xlsx
+++ b/Python/Registers.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhporter8/Documents/ATOM/covg_fpga/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalo1\OPAMPGUI\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97EE294-E878-9743-BA2C-99AEFC8B114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0819FA7C-6E7B-4E17-9DCA-466C51CDBFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{C3AB243F-651F-4CB0-B6E1-3CA4785EC4D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{C3AB243F-651F-4CB0-B6E1-3CA4785EC4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="I2C" sheetId="1" r:id="rId1"/>
-    <sheet name="I2C_NEW" sheetId="12" r:id="rId2"/>
-    <sheet name="IOExpander" sheetId="3" r:id="rId3"/>
-    <sheet name="24AA025UID" sheetId="9" r:id="rId4"/>
-    <sheet name="SPI" sheetId="2" r:id="rId5"/>
-    <sheet name="SPI_WB_1" sheetId="4" r:id="rId6"/>
-    <sheet name="SPI_WB_2" sheetId="5" r:id="rId7"/>
-    <sheet name="DAC80508" sheetId="6" r:id="rId8"/>
-    <sheet name="DAC80508_CONFIG" sheetId="7" r:id="rId9"/>
-    <sheet name="clamp_configuration" sheetId="8" r:id="rId10"/>
-    <sheet name="DAC53401" sheetId="10" r:id="rId11"/>
-    <sheet name="AD5453" sheetId="14" r:id="rId12"/>
-    <sheet name="ADS7952" sheetId="15" r:id="rId13"/>
-    <sheet name="AD7961" sheetId="13" r:id="rId14"/>
+    <sheet name="ADS8686" sheetId="16" r:id="rId2"/>
+    <sheet name="I2C_NEW" sheetId="12" r:id="rId3"/>
+    <sheet name="IOExpander" sheetId="3" r:id="rId4"/>
+    <sheet name="24AA025UID" sheetId="9" r:id="rId5"/>
+    <sheet name="SPI" sheetId="2" r:id="rId6"/>
+    <sheet name="SPI_WB_1" sheetId="4" r:id="rId7"/>
+    <sheet name="SPI_WB_2" sheetId="5" r:id="rId8"/>
+    <sheet name="DAC80508" sheetId="6" r:id="rId9"/>
+    <sheet name="DAC80508_CONFIG" sheetId="7" r:id="rId10"/>
+    <sheet name="clamp_configuration" sheetId="8" r:id="rId11"/>
+    <sheet name="DAC53401" sheetId="10" r:id="rId12"/>
+    <sheet name="AD5453" sheetId="14" r:id="rId13"/>
+    <sheet name="ADS7952" sheetId="15" r:id="rId14"/>
+    <sheet name="AD7961" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">I2C!$A$1:$E$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">I2C_NEW!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I2C_NEW!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -1017,20 +1018,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235290A7-75FE-4F10-817B-094022AE6900}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1150,10 +1151,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1162,6 +1163,328 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD157825-FA55-4A1C-B340-312146B82B8E}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDACA481-2925-4EA7-BD1F-BDE6CBFB0E5A}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1169,17 +1492,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1219,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1239,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1259,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -1279,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1299,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1319,7 +1642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -1339,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1359,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1379,7 +1702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1399,7 +1722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1419,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -1439,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1459,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1479,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1505,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F712FA06-0E6E-4AB1-8B1E-2EE3C8FE3D18}">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -1513,16 +1836,16 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1562,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1582,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1602,7 +1925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -1622,7 +1945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -1642,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -1662,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -1682,7 +2005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -1702,7 +2025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -1722,7 +2045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1742,7 +2065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -1762,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -1782,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1802,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1822,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1842,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -1862,7 +2185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1882,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1902,7 +2225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -1922,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1942,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -1962,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -1982,7 +2305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -2002,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -2022,7 +2345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -2042,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -2062,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -2082,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -2102,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -2122,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -2142,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -2162,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -2182,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -2202,7 +2525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2228,7 +2551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C2A19-8BF7-4B8D-9492-08A4DEB2EF8C}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2236,9 +2559,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F9F601-34D5-480B-81CE-67CE1CDB2EB8}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2271,9 +2594,9 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F8966C-0492-4738-84AA-AA5E0C7A41BB}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2306,17 +2629,17 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -2356,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -2376,7 +2699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -2396,7 +2719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -2416,7 +2739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -2436,7 +2759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -2456,7 +2779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -2476,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -2496,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -2516,7 +2839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -2536,7 +2859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -2556,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -2583,6 +2906,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538CA845-EA44-43A6-89AB-099FBAC768ED}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A4859-9E32-4DA3-ACFF-EC0D5B5C36FA}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2590,16 +2948,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2977,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +3037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2699,7 +3057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2719,10 +3077,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -2730,7 +3088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5E5B8F-5BB7-4168-B07F-5847C1B5455F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2738,17 +3096,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +3126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2808,7 +3166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2833,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3DCDAD-A104-45B0-9B4C-29AE8EC77D31}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2841,16 +3199,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2870,7 +3228,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2890,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2910,7 +3268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -2935,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF12F6B-39D7-464E-AFAC-DA98604DB1A5}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2943,16 +3301,16 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +3330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2992,7 +3350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3012,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3032,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3052,7 +3410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3072,7 +3430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3092,7 +3450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3112,7 +3470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3132,7 +3490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3153,7 +3511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -3173,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3193,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3213,7 +3571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -3233,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -3259,7 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40B7BE3-9A42-42BA-88D6-9D009061040B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3267,16 +3625,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3316,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3336,7 +3694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -3361,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81132C-CE5C-48CD-A64A-B3A385985B9A}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3369,16 +3727,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3418,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3438,7 +3796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -3463,7 +3821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9C2D46-1736-43E0-82AF-3E209A55AC59}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3471,16 +3829,16 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3520,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -3540,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -3560,7 +3918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3580,7 +3938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3600,7 +3958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3620,7 +3978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3640,7 +3998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3660,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3680,7 +4038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3700,7 +4058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3720,7 +4078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3740,7 +4098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3760,7 +4118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3780,7 +4138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3800,7 +4158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3820,7 +4178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -3840,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3860,7 +4218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -3880,7 +4238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -3900,7 +4258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -3920,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -3944,326 +4302,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD157825-FA55-4A1C-B340-312146B82B8E}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>